--- a/src/main/resources/script/db/init-data/hzero_file/hzero_file/hzero-data-file.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_file/hzero-data-file.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="105">
   <si>
     <r>
       <rPr>
@@ -1996,7 +1996,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-03-12</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2053,6 +2053,33 @@
     <t>create_bucket_flag</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>MINIO</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>http://hzerodevoss.saas.hand-china.com</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>hz</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>文件容量配置表</t>
   </si>
   <si>
@@ -2077,12 +2104,6 @@
     <t>storage_size</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>10240</t>
   </si>
   <si>
@@ -2138,21 +2159,6 @@
   </si>
   <si>
     <t>7z,tar,rar,zip,tbz,bz2,bz,tgz,gz</t>
-  </si>
-  <si>
-    <t>test/</t>
-  </si>
-  <si>
-    <t>application,image</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>jpeg</t>
   </si>
 </sst>
 </file>
@@ -3219,7 +3225,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3309,6 +3315,41 @@
         <v>68</v>
       </c>
     </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3316,7 +3357,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3355,48 +3396,48 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s" s="49">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s" s="50">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="51">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -3407,112 +3448,86 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s" s="52">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s" s="53">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s" s="54">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s" s="55">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s" s="56">
+        <v>93</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
         <v>84</v>
       </c>
-      <c r="F10" t="s" s="54">
-        <v>72</v>
-      </c>
-      <c r="G10" t="s" s="55">
+      <c r="K10" t="s">
         <v>85</v>
       </c>
-      <c r="H10" t="s" s="56">
-        <v>86</v>
-      </c>
-      <c r="I10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" t="s">
-        <v>76</v>
-      </c>
       <c r="L10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
